--- a/python/dsexcel-trimmed.xlsx
+++ b/python/dsexcel-trimmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eeb4/Documents/GitHub/newtfire/digit210-projects/Dark-Souls-Lore-ChatGPT/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43758300-A900-264B-BFBF-BB50FE502FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A12BFD-3D36-D243-8EAB-2B34C8269A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="760" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15590,7 +15590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15604,6 +15604,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15924,8 +15925,8 @@
   <dimension ref="A1:M959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD42"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16014,7 +16015,7 @@
       <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="6"/>
